--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\advisor_selection\advisor-selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD74586-7DE6-440C-A9EA-0E478C953377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD8273B-A730-4E07-BD81-B22005C0A428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{4E175FB9-6C62-4686-82A6-8F8DC46814E0}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,14 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正取一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王宇翔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正取三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +65,26 @@
   </si>
   <si>
     <t>王大便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>正取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>五</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王測試</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,6 +107,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -441,7 +459,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -451,13 +469,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1">
-        <v>123456</v>
+        <v>111111</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -465,41 +483,41 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>123445</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>123455</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>123555</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
